--- a/evaluation-vuze/csvs/vuze_second.xlsx
+++ b/evaluation-vuze/csvs/vuze_second.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="vuze" sheetId="1" r:id="rId1"/>
@@ -1946,7 +1946,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0">
-  <autoFilter ref="A1:F1048576"/>
+  <autoFilter ref="A1:F1048576">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:F390">
+    <sortCondition ref="E1:E1048576"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="package"/>
     <tableColumn id="2" name="file"/>
@@ -2224,11 +2233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F390"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="F391" sqref="F391"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -2258,19 +2267,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2278,19 +2287,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C3">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2298,19 +2307,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="C4">
-        <v>2535</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2318,19 +2327,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="C5">
-        <v>3487</v>
+        <v>1087</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2338,19 +2347,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>516</v>
       </c>
       <c r="C6">
-        <v>669</v>
+        <v>1640</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>517</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2358,19 +2367,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>536</v>
+        <v>628</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2384,13 +2393,13 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>1729</v>
+        <v>669</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2398,19 +2407,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>2122</v>
+        <v>2250</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2418,19 +2427,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>2126</v>
+        <v>1578</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2438,16 +2447,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>2250</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -2461,16 +2470,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>2187</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2481,16 +2490,16 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2501,16 +2510,16 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2521,16 +2530,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2541,16 +2550,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>1112</v>
+        <v>472</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2561,16 +2570,16 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>1124</v>
+        <v>493</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2578,19 +2587,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C18">
-        <v>1576</v>
+        <v>800</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2598,19 +2607,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>235</v>
+        <v>904</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2618,19 +2627,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C20">
-        <v>468</v>
+        <v>3041</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2638,16 +2647,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C21">
-        <v>1578</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -2658,19 +2667,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C22">
-        <v>1571</v>
+        <v>967</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2678,16 +2687,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C23">
-        <v>365</v>
+        <v>911</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -2698,13 +2707,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C24">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -2718,16 +2727,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C25">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2738,16 +2747,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C26">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -2758,16 +2767,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C27">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -2778,16 +2787,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C28">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -2798,16 +2807,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C29">
-        <v>493</v>
+        <v>1068</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -2818,16 +2827,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C30">
-        <v>800</v>
+        <v>932</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -2838,16 +2847,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C31">
-        <v>904</v>
+        <v>1150</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -2858,19 +2867,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C32">
-        <v>2518</v>
+        <v>892</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2878,39 +2887,39 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C33">
-        <v>2936</v>
+        <v>1673</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C34">
-        <v>3272</v>
+        <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2918,16 +2927,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C35">
-        <v>3041</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -2938,19 +2947,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C36">
-        <v>1026</v>
+        <v>1359</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2958,19 +2967,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C37">
-        <v>1032</v>
+        <v>240</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2978,19 +2987,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C38">
-        <v>2276</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2998,19 +3007,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C39">
-        <v>2289</v>
+        <v>498</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3018,19 +3027,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C40">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3038,19 +3047,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C41">
-        <v>530</v>
+        <v>1993</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3058,19 +3067,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="C42">
-        <v>2296</v>
+        <v>504</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3078,19 +3087,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="C43">
-        <v>2308</v>
+        <v>339</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3098,19 +3107,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="C44">
-        <v>2323</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3118,19 +3127,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C45">
-        <v>2450</v>
+        <v>663</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3138,19 +3147,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C46">
-        <v>2728</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3158,19 +3167,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="C47">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3178,16 +3187,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C48">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -3198,19 +3207,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="C49">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3218,19 +3227,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C50">
-        <v>709</v>
+        <v>328</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3238,16 +3247,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C51">
-        <v>967</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -3258,19 +3267,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C52">
-        <v>209</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3278,19 +3287,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C53">
-        <v>225</v>
+        <v>381</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3298,19 +3307,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C54">
-        <v>229</v>
+        <v>591</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -3318,16 +3327,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="C55">
-        <v>911</v>
+        <v>598</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -3338,16 +3347,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C56">
-        <v>139</v>
+        <v>745</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -3358,16 +3367,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C57">
-        <v>219</v>
+        <v>763</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -3378,16 +3387,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="C58">
-        <v>340</v>
+        <v>1115</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -3398,16 +3407,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="C59">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -3418,16 +3427,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="C60">
-        <v>509</v>
+        <v>422</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -3438,19 +3447,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="C61">
-        <v>963</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -3458,16 +3467,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C62">
-        <v>1068</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -3478,19 +3487,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C63">
-        <v>830</v>
+        <v>582</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3498,16 +3507,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="C64">
-        <v>932</v>
+        <v>741</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -3518,16 +3527,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="C65">
-        <v>1150</v>
+        <v>2023</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -3538,19 +3547,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="C66">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3558,19 +3567,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="C67">
-        <v>1138</v>
+        <v>470</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3578,19 +3587,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="C68">
-        <v>129</v>
+        <v>835</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3598,19 +3607,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="C69">
-        <v>136</v>
+        <v>941</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3618,16 +3627,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="C70">
-        <v>892</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -3638,16 +3647,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="C71">
-        <v>1673</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -3658,16 +3667,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="C72">
-        <v>1723</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -3678,19 +3687,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="C73">
-        <v>2334</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3698,19 +3707,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="C74">
-        <v>2493</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3718,19 +3727,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="C75">
-        <v>2503</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3738,16 +3747,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="C76">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -3758,19 +3767,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="C77">
-        <v>77</v>
+        <v>1068</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3778,19 +3787,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="C78">
-        <v>58</v>
+        <v>1466</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3798,19 +3807,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="C79">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="D79" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3818,19 +3827,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="C80">
-        <v>107</v>
+        <v>1787</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3838,16 +3847,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="C81">
-        <v>1359</v>
+        <v>1811</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -3858,19 +3867,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="C82">
-        <v>671</v>
+        <v>3789</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3878,19 +3887,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="C83">
-        <v>679</v>
+        <v>2157</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3898,16 +3907,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="C84">
-        <v>240</v>
+        <v>1013</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -3918,19 +3927,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>318</v>
       </c>
       <c r="C85">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3938,19 +3947,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>320</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="C86">
-        <v>1413</v>
+        <v>225</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3958,19 +3967,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>335</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>338</v>
       </c>
       <c r="C87">
-        <v>1467</v>
+        <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>339</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3978,19 +3987,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>346</v>
       </c>
       <c r="C88">
-        <v>2682</v>
+        <v>326</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3998,16 +4007,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="C89">
-        <v>138</v>
+        <v>686</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -4018,16 +4027,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="C90">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -4038,16 +4047,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>364</v>
       </c>
       <c r="C91">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -4058,19 +4067,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="C92">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>365</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -4078,16 +4087,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>367</v>
       </c>
       <c r="C93">
-        <v>1993</v>
+        <v>2022</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -4098,16 +4107,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>368</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>369</v>
       </c>
       <c r="C94">
-        <v>504</v>
+        <v>3008</v>
       </c>
       <c r="D94" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -4118,16 +4127,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>368</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>369</v>
       </c>
       <c r="C95">
-        <v>339</v>
+        <v>3531</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -4138,16 +4147,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="C96">
-        <v>130</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -4158,16 +4167,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>380</v>
       </c>
       <c r="C97">
-        <v>663</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>381</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -4178,19 +4187,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>389</v>
       </c>
       <c r="C98">
-        <v>788</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4198,16 +4207,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="C99">
-        <v>187</v>
+        <v>500</v>
       </c>
       <c r="D99" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -4218,16 +4227,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="C100">
-        <v>241</v>
+        <v>1310</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -4238,16 +4247,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>398</v>
       </c>
       <c r="C101">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>399</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -4258,16 +4267,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="C102">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -4278,16 +4287,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="C103">
-        <v>328</v>
+        <v>692</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -4298,16 +4307,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="C104">
-        <v>330</v>
+        <v>985</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>402</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -4318,16 +4327,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="C105">
-        <v>353</v>
+        <v>993</v>
       </c>
       <c r="D105" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -4338,16 +4347,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="C106">
-        <v>381</v>
+        <v>1280</v>
       </c>
       <c r="D106" t="s">
-        <v>174</v>
+        <v>403</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -4358,16 +4367,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="C107">
-        <v>591</v>
+        <v>1390</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -4378,16 +4387,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>404</v>
       </c>
       <c r="C108">
-        <v>598</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -4398,16 +4407,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>405</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="C109">
-        <v>745</v>
+        <v>134</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -4418,16 +4427,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>411</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>412</v>
       </c>
       <c r="C110">
-        <v>763</v>
+        <v>67</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -4438,16 +4447,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>411</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="C111">
-        <v>1115</v>
+        <v>167</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -4458,19 +4467,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>422</v>
       </c>
       <c r="C112">
-        <v>585</v>
+        <v>909</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>423</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -4478,19 +4487,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>422</v>
       </c>
       <c r="C113">
-        <v>737</v>
+        <v>926</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -4498,19 +4507,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>432</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="C114">
-        <v>752</v>
+        <v>125</v>
       </c>
       <c r="D114" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -4518,16 +4527,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="C115">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D115" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -4538,16 +4547,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="C116">
-        <v>422</v>
+        <v>270</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>435</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -4558,16 +4567,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>452</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>453</v>
       </c>
       <c r="C117">
-        <v>57</v>
+        <v>704</v>
       </c>
       <c r="D117" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -4578,16 +4587,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>455</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>456</v>
       </c>
       <c r="C118">
-        <v>145</v>
+        <v>1646</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>435</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -4598,16 +4607,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>184</v>
+        <v>462</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>463</v>
       </c>
       <c r="C119">
-        <v>582</v>
+        <v>231</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -4618,19 +4627,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>184</v>
+        <v>465</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>466</v>
       </c>
       <c r="C120">
-        <v>333</v>
+        <v>591</v>
       </c>
       <c r="D120" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -4638,16 +4647,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>468</v>
       </c>
       <c r="C121">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="D121" t="s">
-        <v>192</v>
+        <v>469</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -4658,19 +4667,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>474</v>
       </c>
       <c r="C122">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="D122" t="s">
-        <v>194</v>
+        <v>475</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -4678,19 +4687,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
+        <v>477</v>
       </c>
       <c r="C123">
-        <v>1099</v>
+        <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -4698,19 +4707,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>477</v>
       </c>
       <c r="C124">
-        <v>1295</v>
+        <v>175</v>
       </c>
       <c r="D124" t="s">
-        <v>198</v>
+        <v>478</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -4718,16 +4727,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>476</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>479</v>
       </c>
       <c r="C125">
-        <v>2023</v>
+        <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>50</v>
+        <v>480</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -4738,19 +4747,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>199</v>
+        <v>476</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>481</v>
       </c>
       <c r="C126">
-        <v>2014</v>
+        <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -4758,16 +4767,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>481</v>
       </c>
       <c r="C127">
-        <v>414</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
-        <v>168</v>
+        <v>482</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -4778,16 +4787,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>483</v>
       </c>
       <c r="C128">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="D128" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -4798,16 +4807,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B129" t="s">
-        <v>201</v>
+        <v>485</v>
       </c>
       <c r="C129">
-        <v>835</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
-        <v>168</v>
+        <v>486</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
@@ -4818,16 +4827,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>487</v>
       </c>
       <c r="C130">
-        <v>941</v>
+        <v>375</v>
       </c>
       <c r="D130" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
@@ -4838,19 +4847,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B131" t="s">
-        <v>201</v>
+        <v>488</v>
       </c>
       <c r="C131">
-        <v>407</v>
+        <v>610</v>
       </c>
       <c r="D131" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -4858,19 +4867,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>488</v>
       </c>
       <c r="C132">
-        <v>463</v>
+        <v>917</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -4878,19 +4887,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>195</v>
+        <v>491</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="C133">
-        <v>828</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
-        <v>202</v>
+        <v>493</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -4898,19 +4907,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>495</v>
       </c>
       <c r="C134">
-        <v>934</v>
+        <v>530</v>
       </c>
       <c r="D134" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -4918,16 +4927,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>195</v>
+        <v>476</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>495</v>
       </c>
       <c r="C135">
-        <v>110</v>
+        <v>541</v>
       </c>
       <c r="D135" t="s">
-        <v>204</v>
+        <v>496</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -4938,19 +4947,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>476</v>
       </c>
       <c r="B136" t="s">
-        <v>206</v>
+        <v>497</v>
       </c>
       <c r="C136">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="D136" t="s">
-        <v>207</v>
+        <v>496</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -4958,19 +4967,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>476</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>497</v>
       </c>
       <c r="C137">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D137" t="s">
-        <v>208</v>
+        <v>496</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -4978,19 +4987,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>476</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>501</v>
       </c>
       <c r="C138">
-        <v>507</v>
+        <v>598</v>
       </c>
       <c r="D138" t="s">
-        <v>209</v>
+        <v>502</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -4998,19 +5007,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>503</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>501</v>
       </c>
       <c r="C139">
-        <v>516</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>210</v>
+        <v>504</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -5018,19 +5027,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>211</v>
+        <v>503</v>
       </c>
       <c r="B140" t="s">
-        <v>212</v>
+        <v>501</v>
       </c>
       <c r="C140">
-        <v>118</v>
+        <v>394</v>
       </c>
       <c r="D140" t="s">
-        <v>213</v>
+        <v>504</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -5038,19 +5047,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>214</v>
+        <v>476</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>508</v>
       </c>
       <c r="C141">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="D141" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -5058,16 +5067,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>216</v>
+        <v>476</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>509</v>
       </c>
       <c r="C142">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D142" t="s">
-        <v>218</v>
+        <v>510</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
@@ -5078,19 +5087,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>216</v>
+        <v>476</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>509</v>
       </c>
       <c r="C143">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D143" t="s">
-        <v>219</v>
+        <v>511</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -5098,16 +5107,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>216</v>
+        <v>476</v>
       </c>
       <c r="B144" t="s">
-        <v>220</v>
+        <v>512</v>
       </c>
       <c r="C144">
-        <v>163</v>
+        <v>4638</v>
       </c>
       <c r="D144" t="s">
-        <v>221</v>
+        <v>513</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -5118,19 +5127,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>518</v>
       </c>
       <c r="B145" t="s">
-        <v>223</v>
+        <v>519</v>
       </c>
       <c r="C145">
-        <v>345</v>
+        <v>181</v>
       </c>
       <c r="D145" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -5138,19 +5147,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>222</v>
+        <v>520</v>
       </c>
       <c r="B146" t="s">
-        <v>223</v>
+        <v>521</v>
       </c>
       <c r="C146">
-        <v>417</v>
+        <v>814</v>
       </c>
       <c r="D146" t="s">
-        <v>225</v>
+        <v>522</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5158,19 +5167,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>222</v>
+        <v>520</v>
       </c>
       <c r="B147" t="s">
-        <v>223</v>
+        <v>521</v>
       </c>
       <c r="C147">
-        <v>549</v>
+        <v>1199</v>
       </c>
       <c r="D147" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -5178,16 +5187,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>227</v>
+        <v>524</v>
       </c>
       <c r="B148" t="s">
-        <v>228</v>
+        <v>525</v>
       </c>
       <c r="C148">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D148" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -5198,19 +5207,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>533</v>
       </c>
       <c r="B149" t="s">
-        <v>231</v>
+        <v>534</v>
       </c>
       <c r="C149">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="D149" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -5218,19 +5227,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>230</v>
+        <v>536</v>
       </c>
       <c r="B150" t="s">
-        <v>231</v>
+        <v>537</v>
       </c>
       <c r="C150">
-        <v>2264</v>
+        <v>169</v>
       </c>
       <c r="D150" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -5238,19 +5247,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>234</v>
+        <v>538</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>539</v>
       </c>
       <c r="C151">
-        <v>174</v>
+        <v>800</v>
       </c>
       <c r="D151" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -5258,19 +5267,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>237</v>
+        <v>540</v>
       </c>
       <c r="B152" t="s">
-        <v>235</v>
+        <v>541</v>
       </c>
       <c r="C152">
-        <v>600</v>
+        <v>1154</v>
       </c>
       <c r="D152" t="s">
-        <v>238</v>
+        <v>542</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -5278,19 +5287,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>239</v>
+        <v>543</v>
       </c>
       <c r="B153" t="s">
-        <v>240</v>
+        <v>544</v>
       </c>
       <c r="C153">
-        <v>828</v>
+        <v>205</v>
       </c>
       <c r="D153" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -5298,19 +5307,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>543</v>
       </c>
       <c r="B154" t="s">
-        <v>240</v>
+        <v>544</v>
       </c>
       <c r="C154">
-        <v>858</v>
+        <v>232</v>
       </c>
       <c r="D154" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -5318,19 +5327,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>243</v>
+        <v>543</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>544</v>
       </c>
       <c r="C155">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="D155" t="s">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -5338,19 +5347,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>243</v>
+        <v>543</v>
       </c>
       <c r="B156" t="s">
-        <v>244</v>
+        <v>545</v>
       </c>
       <c r="C156">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="D156" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -5358,19 +5367,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>243</v>
+        <v>546</v>
       </c>
       <c r="B157" t="s">
-        <v>244</v>
+        <v>547</v>
       </c>
       <c r="C157">
-        <v>329</v>
+        <v>178</v>
       </c>
       <c r="D157" t="s">
-        <v>247</v>
+        <v>548</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -5378,16 +5387,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>248</v>
+        <v>546</v>
       </c>
       <c r="B158" t="s">
-        <v>249</v>
+        <v>547</v>
       </c>
       <c r="C158">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="D158" t="s">
-        <v>250</v>
+        <v>548</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -5398,19 +5407,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>546</v>
       </c>
       <c r="B159" t="s">
-        <v>252</v>
+        <v>549</v>
       </c>
       <c r="C159">
-        <v>7594</v>
+        <v>427</v>
       </c>
       <c r="D159" t="s">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -5418,16 +5427,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>254</v>
+        <v>550</v>
       </c>
       <c r="B160" t="s">
-        <v>255</v>
+        <v>551</v>
       </c>
       <c r="C160">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="D160" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
@@ -5438,19 +5447,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>257</v>
+        <v>557</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>558</v>
       </c>
       <c r="C161">
-        <v>1625</v>
+        <v>299</v>
       </c>
       <c r="D161" t="s">
-        <v>259</v>
+        <v>559</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -5458,19 +5467,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>557</v>
       </c>
       <c r="B162" t="s">
-        <v>260</v>
+        <v>558</v>
       </c>
       <c r="C162">
-        <v>2085</v>
+        <v>340</v>
       </c>
       <c r="D162" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -5478,19 +5487,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>563</v>
       </c>
       <c r="B163" t="s">
-        <v>260</v>
+        <v>569</v>
       </c>
       <c r="C163">
-        <v>2271</v>
+        <v>116</v>
       </c>
       <c r="D163" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5498,19 +5507,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>570</v>
       </c>
       <c r="B164" t="s">
-        <v>260</v>
+        <v>571</v>
       </c>
       <c r="C164">
-        <v>5786</v>
+        <v>463</v>
       </c>
       <c r="D164" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -5518,19 +5527,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>257</v>
+        <v>574</v>
       </c>
       <c r="B165" t="s">
-        <v>260</v>
+        <v>575</v>
       </c>
       <c r="C165">
-        <v>5792</v>
+        <v>897</v>
       </c>
       <c r="D165" t="s">
-        <v>264</v>
+        <v>576</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -5538,19 +5547,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>257</v>
+        <v>574</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>575</v>
       </c>
       <c r="C166">
-        <v>5800</v>
+        <v>1036</v>
       </c>
       <c r="D166" t="s">
-        <v>265</v>
+        <v>577</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -5558,19 +5567,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>574</v>
       </c>
       <c r="B167" t="s">
-        <v>266</v>
+        <v>578</v>
       </c>
       <c r="C167">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D167" t="s">
-        <v>267</v>
+        <v>579</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -5578,16 +5587,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>268</v>
+        <v>560</v>
       </c>
       <c r="B168" t="s">
-        <v>269</v>
+        <v>581</v>
       </c>
       <c r="C168">
-        <v>688</v>
+        <v>126</v>
       </c>
       <c r="D168" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -5598,16 +5607,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>560</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>582</v>
       </c>
       <c r="C169">
-        <v>1068</v>
+        <v>329</v>
       </c>
       <c r="D169" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
@@ -5618,19 +5627,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>268</v>
+        <v>560</v>
       </c>
       <c r="B170" t="s">
-        <v>269</v>
+        <v>582</v>
       </c>
       <c r="C170">
-        <v>1033</v>
+        <v>403</v>
       </c>
       <c r="D170" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -5638,19 +5647,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>268</v>
+        <v>560</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>582</v>
       </c>
       <c r="C171">
-        <v>1055</v>
+        <v>482</v>
       </c>
       <c r="D171" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -5658,19 +5667,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>560</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>582</v>
       </c>
       <c r="C172">
-        <v>749</v>
+        <v>561</v>
       </c>
       <c r="D172" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -5678,19 +5687,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>275</v>
+        <v>588</v>
       </c>
       <c r="B173" t="s">
-        <v>276</v>
+        <v>589</v>
       </c>
       <c r="C173">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="D173" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -5698,16 +5707,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>278</v>
+        <v>588</v>
       </c>
       <c r="B174" t="s">
-        <v>279</v>
+        <v>590</v>
       </c>
       <c r="C174">
-        <v>1466</v>
+        <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
@@ -5718,19 +5727,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>280</v>
+        <v>588</v>
       </c>
       <c r="B175" t="s">
-        <v>281</v>
+        <v>590</v>
       </c>
       <c r="C175">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="D175" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="E175" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -5738,19 +5747,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>283</v>
+        <v>588</v>
       </c>
       <c r="B176" t="s">
-        <v>284</v>
+        <v>590</v>
       </c>
       <c r="C176">
-        <v>1087</v>
+        <v>368</v>
       </c>
       <c r="D176" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -5758,19 +5767,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>286</v>
+        <v>599</v>
       </c>
       <c r="B177" t="s">
-        <v>287</v>
+        <v>600</v>
       </c>
       <c r="C177">
-        <v>2104</v>
+        <v>94</v>
       </c>
       <c r="D177" t="s">
-        <v>288</v>
+        <v>56</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -5778,19 +5787,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>289</v>
+        <v>613</v>
       </c>
       <c r="B178" t="s">
-        <v>290</v>
+        <v>614</v>
       </c>
       <c r="C178">
-        <v>623</v>
+        <v>1512</v>
       </c>
       <c r="D178" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -5798,19 +5807,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="C179">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="D179" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -5818,19 +5827,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="C180">
-        <v>1787</v>
+        <v>2535</v>
       </c>
       <c r="D180" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -5838,19 +5847,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="C181">
-        <v>1811</v>
+        <v>3487</v>
       </c>
       <c r="D181" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E181" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -5858,16 +5867,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="C182">
-        <v>1764</v>
+        <v>536</v>
       </c>
       <c r="D182" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
         <v>13</v>
@@ -5878,16 +5887,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="C183">
-        <v>1545</v>
+        <v>1729</v>
       </c>
       <c r="D183" t="s">
-        <v>298</v>
+        <v>21</v>
       </c>
       <c r="E183" t="s">
         <v>13</v>
@@ -5898,16 +5907,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="C184">
-        <v>1556</v>
+        <v>2122</v>
       </c>
       <c r="D184" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -5918,19 +5927,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="C185">
-        <v>3789</v>
+        <v>2126</v>
       </c>
       <c r="D185" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -5938,16 +5947,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>301</v>
+        <v>25</v>
       </c>
       <c r="C186">
-        <v>1830</v>
+        <v>2187</v>
       </c>
       <c r="D186" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="E186" t="s">
         <v>13</v>
@@ -5958,16 +5967,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="C187">
-        <v>1849</v>
+        <v>359</v>
       </c>
       <c r="D187" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="E187" t="s">
         <v>13</v>
@@ -5978,16 +5987,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="C188">
-        <v>3900</v>
+        <v>342</v>
       </c>
       <c r="D188" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
@@ -5998,19 +6007,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="C189">
-        <v>2157</v>
+        <v>258</v>
       </c>
       <c r="D189" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E189" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -6018,16 +6027,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="C190">
-        <v>1673</v>
+        <v>1112</v>
       </c>
       <c r="D190" t="s">
-        <v>307</v>
+        <v>34</v>
       </c>
       <c r="E190" t="s">
         <v>13</v>
@@ -6038,19 +6047,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="B191" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="C191">
-        <v>1013</v>
+        <v>1124</v>
       </c>
       <c r="D191" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -6058,16 +6067,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="B192" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="C192">
-        <v>2734</v>
+        <v>1576</v>
       </c>
       <c r="D192" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -6078,16 +6087,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="B193" t="s">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="C193">
-        <v>1624</v>
+        <v>468</v>
       </c>
       <c r="D193" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="E193" t="s">
         <v>13</v>
@@ -6098,16 +6107,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="C194">
-        <v>2171</v>
+        <v>1571</v>
       </c>
       <c r="D194" t="s">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="E194" t="s">
         <v>13</v>
@@ -6118,19 +6127,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="B195" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="C195">
-        <v>332</v>
+        <v>2518</v>
       </c>
       <c r="D195" t="s">
-        <v>319</v>
+        <v>60</v>
       </c>
       <c r="E195" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -6138,36 +6147,36 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="B196" t="s">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c r="C196">
-        <v>225</v>
+        <v>2936</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E196" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="B197" t="s">
-        <v>323</v>
+        <v>58</v>
       </c>
       <c r="C197">
-        <v>1565</v>
+        <v>3272</v>
       </c>
       <c r="D197" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="E197" t="s">
         <v>13</v>
@@ -6178,16 +6187,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="B198" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="C198">
-        <v>1651</v>
+        <v>1026</v>
       </c>
       <c r="D198" t="s">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
@@ -6198,16 +6207,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="B199" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="C199">
-        <v>1680</v>
+        <v>1032</v>
       </c>
       <c r="D199" t="s">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -6218,16 +6227,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="B200" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="C200">
-        <v>1724</v>
+        <v>2276</v>
       </c>
       <c r="D200" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="E200" t="s">
         <v>13</v>
@@ -6238,16 +6247,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="B201" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="C201">
-        <v>1726</v>
+        <v>2289</v>
       </c>
       <c r="D201" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
@@ -6258,16 +6267,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="B202" t="s">
-        <v>323</v>
+        <v>71</v>
       </c>
       <c r="C202">
-        <v>1154</v>
+        <v>367</v>
       </c>
       <c r="D202" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
@@ -6278,19 +6287,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="B203" t="s">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="C203">
-        <v>156</v>
+        <v>530</v>
       </c>
       <c r="D203" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
       <c r="E203" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -6298,16 +6307,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="B204" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="C204">
-        <v>3754</v>
+        <v>2296</v>
       </c>
       <c r="D204" t="s">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
@@ -6318,19 +6327,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>71</v>
       </c>
       <c r="C205">
-        <v>272</v>
+        <v>2308</v>
       </c>
       <c r="D205" t="s">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="E205" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -6338,16 +6347,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="B206" t="s">
-        <v>338</v>
+        <v>71</v>
       </c>
       <c r="C206">
-        <v>269</v>
+        <v>2323</v>
       </c>
       <c r="D206" t="s">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -6358,16 +6367,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="B207" t="s">
-        <v>338</v>
+        <v>71</v>
       </c>
       <c r="C207">
-        <v>418</v>
+        <v>2450</v>
       </c>
       <c r="D207" t="s">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="E207" t="s">
         <v>13</v>
@@ -6378,16 +6387,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="B208" t="s">
-        <v>338</v>
+        <v>71</v>
       </c>
       <c r="C208">
-        <v>611</v>
+        <v>2728</v>
       </c>
       <c r="D208" t="s">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="E208" t="s">
         <v>13</v>
@@ -6398,16 +6407,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="B209" t="s">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="C209">
-        <v>625</v>
+        <v>341</v>
       </c>
       <c r="D209" t="s">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="E209" t="s">
         <v>13</v>
@@ -6418,19 +6427,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
       <c r="B210" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="C210">
-        <v>326</v>
+        <v>96</v>
       </c>
       <c r="D210" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="E210" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -6438,16 +6447,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="B211" t="s">
-        <v>346</v>
+        <v>90</v>
       </c>
       <c r="C211">
-        <v>752</v>
+        <v>709</v>
       </c>
       <c r="D211" t="s">
-        <v>348</v>
+        <v>91</v>
       </c>
       <c r="E211" t="s">
         <v>13</v>
@@ -6458,16 +6467,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="B212" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="C212">
-        <v>646</v>
+        <v>209</v>
       </c>
       <c r="D212" t="s">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="E212" t="s">
         <v>13</v>
@@ -6478,16 +6487,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="B213" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="C213">
-        <v>1288</v>
+        <v>225</v>
       </c>
       <c r="D213" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -6498,16 +6507,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>349</v>
+        <v>92</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="C214">
-        <v>1321</v>
+        <v>229</v>
       </c>
       <c r="D214" t="s">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="E214" t="s">
         <v>13</v>
@@ -6518,19 +6527,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>355</v>
+        <v>102</v>
       </c>
       <c r="B215" t="s">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="C215">
-        <v>686</v>
+        <v>963</v>
       </c>
       <c r="D215" t="s">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -6538,16 +6547,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>358</v>
+        <v>110</v>
       </c>
       <c r="B216" t="s">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="C216">
-        <v>194</v>
+        <v>830</v>
       </c>
       <c r="D216" t="s">
-        <v>360</v>
+        <v>112</v>
       </c>
       <c r="E216" t="s">
         <v>13</v>
@@ -6558,19 +6567,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>361</v>
+        <v>113</v>
       </c>
       <c r="B217" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="C217">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="D217" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E217" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -6578,19 +6587,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>363</v>
+        <v>113</v>
       </c>
       <c r="B218" t="s">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="C218">
-        <v>123</v>
+        <v>1138</v>
       </c>
       <c r="D218" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="E218" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -6598,19 +6607,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>363</v>
+        <v>117</v>
       </c>
       <c r="B219" t="s">
-        <v>364</v>
+        <v>118</v>
       </c>
       <c r="C219">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D219" t="s">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="E219" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -6618,19 +6627,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>118</v>
       </c>
       <c r="C220">
-        <v>2022</v>
+        <v>136</v>
       </c>
       <c r="D220" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -6638,19 +6647,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>368</v>
+        <v>121</v>
       </c>
       <c r="B221" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="C221">
-        <v>3008</v>
+        <v>2334</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="E221" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -6658,19 +6667,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>368</v>
+        <v>121</v>
       </c>
       <c r="B222" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="C222">
-        <v>3531</v>
+        <v>2493</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -6678,16 +6687,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="B223" t="s">
-        <v>371</v>
+        <v>122</v>
       </c>
       <c r="C223">
-        <v>106</v>
+        <v>2503</v>
       </c>
       <c r="D223" t="s">
-        <v>372</v>
+        <v>128</v>
       </c>
       <c r="E223" t="s">
         <v>13</v>
@@ -6698,16 +6707,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="B224" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="C224">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D224" t="s">
-        <v>373</v>
+        <v>132</v>
       </c>
       <c r="E224" t="s">
         <v>13</v>
@@ -6718,19 +6727,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>374</v>
+        <v>121</v>
       </c>
       <c r="B225" t="s">
-        <v>375</v>
+        <v>129</v>
       </c>
       <c r="C225">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="D225" t="s">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -6738,16 +6747,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>374</v>
+        <v>121</v>
       </c>
       <c r="B226" t="s">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="C226">
-        <v>1137</v>
+        <v>107</v>
       </c>
       <c r="D226" t="s">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="E226" t="s">
         <v>13</v>
@@ -6758,19 +6767,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>379</v>
+        <v>138</v>
       </c>
       <c r="B227" t="s">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="C227">
-        <v>181</v>
+        <v>671</v>
       </c>
       <c r="D227" t="s">
-        <v>381</v>
+        <v>140</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -6778,16 +6787,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="B228" t="s">
-        <v>383</v>
+        <v>139</v>
       </c>
       <c r="C228">
-        <v>274</v>
+        <v>679</v>
       </c>
       <c r="D228" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
       <c r="E228" t="s">
         <v>13</v>
@@ -6798,16 +6807,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="B229" t="s">
-        <v>386</v>
+        <v>145</v>
       </c>
       <c r="C229">
-        <v>590</v>
+        <v>464</v>
       </c>
       <c r="D229" t="s">
-        <v>387</v>
+        <v>146</v>
       </c>
       <c r="E229" t="s">
         <v>13</v>
@@ -6818,19 +6827,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
       <c r="B230" t="s">
-        <v>389</v>
+        <v>145</v>
       </c>
       <c r="C230">
-        <v>108</v>
+        <v>1413</v>
       </c>
       <c r="D230" t="s">
-        <v>390</v>
+        <v>147</v>
       </c>
       <c r="E230" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -6838,16 +6847,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="B231" t="s">
-        <v>392</v>
+        <v>145</v>
       </c>
       <c r="C231">
-        <v>132</v>
+        <v>1467</v>
       </c>
       <c r="D231" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="E231" t="s">
         <v>13</v>
@@ -6858,16 +6867,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="B232" t="s">
-        <v>392</v>
+        <v>145</v>
       </c>
       <c r="C232">
-        <v>150</v>
+        <v>2682</v>
       </c>
       <c r="D232" t="s">
-        <v>394</v>
+        <v>149</v>
       </c>
       <c r="E232" t="s">
         <v>13</v>
@@ -6878,19 +6887,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>395</v>
+        <v>156</v>
       </c>
       <c r="B233" t="s">
-        <v>396</v>
+        <v>157</v>
       </c>
       <c r="C233">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="D233" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="E233" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -6898,19 +6907,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>395</v>
+        <v>161</v>
       </c>
       <c r="B234" t="s">
-        <v>396</v>
+        <v>167</v>
       </c>
       <c r="C234">
-        <v>1310</v>
+        <v>788</v>
       </c>
       <c r="D234" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E234" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -6918,19 +6927,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>397</v>
+        <v>161</v>
       </c>
       <c r="B235" t="s">
-        <v>398</v>
+        <v>172</v>
       </c>
       <c r="C235">
-        <v>196</v>
+        <v>585</v>
       </c>
       <c r="D235" t="s">
-        <v>399</v>
+        <v>177</v>
       </c>
       <c r="E235" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -6938,19 +6947,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>400</v>
+        <v>161</v>
       </c>
       <c r="B236" t="s">
-        <v>401</v>
+        <v>172</v>
       </c>
       <c r="C236">
-        <v>390</v>
+        <v>737</v>
       </c>
       <c r="D236" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -6958,19 +6967,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>400</v>
+        <v>161</v>
       </c>
       <c r="B237" t="s">
-        <v>401</v>
+        <v>172</v>
       </c>
       <c r="C237">
-        <v>692</v>
+        <v>752</v>
       </c>
       <c r="D237" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="E237" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -6978,19 +6987,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>400</v>
+        <v>184</v>
       </c>
       <c r="B238" t="s">
-        <v>401</v>
+        <v>189</v>
       </c>
       <c r="C238">
-        <v>985</v>
+        <v>333</v>
       </c>
       <c r="D238" t="s">
-        <v>402</v>
+        <v>190</v>
       </c>
       <c r="E238" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -6998,19 +7007,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="B239" t="s">
-        <v>401</v>
+        <v>193</v>
       </c>
       <c r="C239">
-        <v>993</v>
+        <v>267</v>
       </c>
       <c r="D239" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E239" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -7018,19 +7027,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="B240" t="s">
-        <v>401</v>
+        <v>196</v>
       </c>
       <c r="C240">
-        <v>1280</v>
+        <v>1099</v>
       </c>
       <c r="D240" t="s">
-        <v>403</v>
+        <v>197</v>
       </c>
       <c r="E240" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -7038,19 +7047,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="B241" t="s">
-        <v>401</v>
+        <v>196</v>
       </c>
       <c r="C241">
-        <v>1390</v>
+        <v>1295</v>
       </c>
       <c r="D241" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -7058,19 +7067,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>400</v>
+        <v>199</v>
       </c>
       <c r="B242" t="s">
-        <v>404</v>
+        <v>196</v>
       </c>
       <c r="C242">
-        <v>293</v>
+        <v>2014</v>
       </c>
       <c r="D242" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="E242" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -7078,19 +7087,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>405</v>
+        <v>195</v>
       </c>
       <c r="B243" t="s">
-        <v>406</v>
+        <v>201</v>
       </c>
       <c r="C243">
-        <v>134</v>
+        <v>407</v>
       </c>
       <c r="D243" t="s">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -7098,16 +7107,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="B244" t="s">
-        <v>409</v>
+        <v>201</v>
       </c>
       <c r="C244">
-        <v>634</v>
+        <v>463</v>
       </c>
       <c r="D244" t="s">
-        <v>410</v>
+        <v>202</v>
       </c>
       <c r="E244" t="s">
         <v>13</v>
@@ -7118,19 +7127,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>411</v>
+        <v>195</v>
       </c>
       <c r="B245" t="s">
-        <v>412</v>
+        <v>201</v>
       </c>
       <c r="C245">
-        <v>67</v>
+        <v>828</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="E245" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -7138,16 +7147,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>411</v>
+        <v>195</v>
       </c>
       <c r="B246" t="s">
-        <v>413</v>
+        <v>201</v>
       </c>
       <c r="C246">
-        <v>2670</v>
+        <v>934</v>
       </c>
       <c r="D246" t="s">
-        <v>414</v>
+        <v>202</v>
       </c>
       <c r="E246" t="s">
         <v>13</v>
@@ -7158,16 +7167,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="B247" t="s">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="C247">
-        <v>2689</v>
+        <v>366</v>
       </c>
       <c r="D247" t="s">
-        <v>415</v>
+        <v>207</v>
       </c>
       <c r="E247" t="s">
         <v>13</v>
@@ -7178,16 +7187,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="B248" t="s">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="C248">
-        <v>2689</v>
+        <v>422</v>
       </c>
       <c r="D248" t="s">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
@@ -7198,16 +7207,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="B249" t="s">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="C249">
-        <v>2861</v>
+        <v>507</v>
       </c>
       <c r="D249" t="s">
-        <v>416</v>
+        <v>209</v>
       </c>
       <c r="E249" t="s">
         <v>13</v>
@@ -7218,19 +7227,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="B250" t="s">
-        <v>417</v>
+        <v>206</v>
       </c>
       <c r="C250">
-        <v>167</v>
+        <v>516</v>
       </c>
       <c r="D250" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="E250" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -7238,16 +7247,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>418</v>
+        <v>214</v>
       </c>
       <c r="B251" t="s">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="C251">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="D251" t="s">
-        <v>420</v>
+        <v>215</v>
       </c>
       <c r="E251" t="s">
         <v>13</v>
@@ -7258,16 +7267,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="B252" t="s">
-        <v>419</v>
+        <v>217</v>
       </c>
       <c r="C252">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="D252" t="s">
-        <v>421</v>
+        <v>219</v>
       </c>
       <c r="E252" t="s">
         <v>13</v>
@@ -7278,19 +7287,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="B253" t="s">
-        <v>422</v>
+        <v>223</v>
       </c>
       <c r="C253">
-        <v>909</v>
+        <v>345</v>
       </c>
       <c r="D253" t="s">
-        <v>423</v>
+        <v>224</v>
       </c>
       <c r="E253" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -7298,19 +7307,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="B254" t="s">
-        <v>422</v>
+        <v>223</v>
       </c>
       <c r="C254">
-        <v>926</v>
+        <v>417</v>
       </c>
       <c r="D254" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="E254" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -7318,16 +7327,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="B255" t="s">
-        <v>422</v>
+        <v>223</v>
       </c>
       <c r="C255">
-        <v>2197</v>
+        <v>549</v>
       </c>
       <c r="D255" t="s">
-        <v>424</v>
+        <v>226</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -7338,16 +7347,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="B256" t="s">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="C256">
-        <v>3038</v>
+        <v>551</v>
       </c>
       <c r="D256" t="s">
-        <v>426</v>
+        <v>232</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
@@ -7358,16 +7367,16 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="B257" t="s">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="C257">
-        <v>4429</v>
+        <v>2264</v>
       </c>
       <c r="D257" t="s">
-        <v>420</v>
+        <v>233</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -7378,16 +7387,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="B258" t="s">
-        <v>425</v>
+        <v>235</v>
       </c>
       <c r="C258">
-        <v>4464</v>
+        <v>174</v>
       </c>
       <c r="D258" t="s">
-        <v>421</v>
+        <v>236</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
@@ -7398,16 +7407,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>418</v>
+        <v>237</v>
       </c>
       <c r="B259" t="s">
-        <v>425</v>
+        <v>235</v>
       </c>
       <c r="C259">
-        <v>4804</v>
+        <v>600</v>
       </c>
       <c r="D259" t="s">
-        <v>420</v>
+        <v>238</v>
       </c>
       <c r="E259" t="s">
         <v>13</v>
@@ -7418,16 +7427,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>418</v>
+        <v>239</v>
       </c>
       <c r="B260" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
       <c r="C260">
-        <v>5038</v>
+        <v>828</v>
       </c>
       <c r="D260" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="E260" t="s">
         <v>13</v>
@@ -7438,16 +7447,16 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>427</v>
+        <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>428</v>
+        <v>240</v>
       </c>
       <c r="C261">
-        <v>3271</v>
+        <v>858</v>
       </c>
       <c r="D261" t="s">
-        <v>429</v>
+        <v>242</v>
       </c>
       <c r="E261" t="s">
         <v>13</v>
@@ -7458,16 +7467,16 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>430</v>
+        <v>243</v>
       </c>
       <c r="B262" t="s">
-        <v>428</v>
+        <v>244</v>
       </c>
       <c r="C262">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="D262" t="s">
-        <v>431</v>
+        <v>245</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -7478,19 +7487,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>432</v>
+        <v>243</v>
       </c>
       <c r="B263" t="s">
-        <v>433</v>
+        <v>244</v>
       </c>
       <c r="C263">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c r="D263" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="E263" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -7498,19 +7507,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>432</v>
+        <v>243</v>
       </c>
       <c r="B264" t="s">
-        <v>434</v>
+        <v>244</v>
       </c>
       <c r="C264">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="D264" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="E264" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -7518,19 +7527,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>432</v>
+        <v>251</v>
       </c>
       <c r="B265" t="s">
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="C265">
-        <v>270</v>
+        <v>7594</v>
       </c>
       <c r="D265" t="s">
-        <v>435</v>
+        <v>253</v>
       </c>
       <c r="E265" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -7538,16 +7547,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>436</v>
+        <v>257</v>
       </c>
       <c r="B266" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="C266">
-        <v>1167</v>
+        <v>1625</v>
       </c>
       <c r="D266" t="s">
-        <v>438</v>
+        <v>259</v>
       </c>
       <c r="E266" t="s">
         <v>13</v>
@@ -7558,16 +7567,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>439</v>
+        <v>257</v>
       </c>
       <c r="B267" t="s">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="C267">
-        <v>277</v>
+        <v>2085</v>
       </c>
       <c r="D267" t="s">
-        <v>441</v>
+        <v>261</v>
       </c>
       <c r="E267" t="s">
         <v>13</v>
@@ -7578,16 +7587,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="B268" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="C268">
-        <v>179</v>
+        <v>2271</v>
       </c>
       <c r="D268" t="s">
-        <v>444</v>
+        <v>262</v>
       </c>
       <c r="E268" t="s">
         <v>13</v>
@@ -7598,16 +7607,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="B269" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="C269">
-        <v>185</v>
+        <v>5786</v>
       </c>
       <c r="D269" t="s">
-        <v>445</v>
+        <v>263</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -7618,16 +7627,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="B270" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="C270">
-        <v>209</v>
+        <v>5792</v>
       </c>
       <c r="D270" t="s">
-        <v>446</v>
+        <v>264</v>
       </c>
       <c r="E270" t="s">
         <v>13</v>
@@ -7638,16 +7647,16 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="B271" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="C271">
-        <v>215</v>
+        <v>5800</v>
       </c>
       <c r="D271" t="s">
-        <v>447</v>
+        <v>265</v>
       </c>
       <c r="E271" t="s">
         <v>13</v>
@@ -7658,16 +7667,16 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="B272" t="s">
-        <v>443</v>
+        <v>266</v>
       </c>
       <c r="C272">
-        <v>512</v>
+        <v>228</v>
       </c>
       <c r="D272" t="s">
-        <v>448</v>
+        <v>267</v>
       </c>
       <c r="E272" t="s">
         <v>13</v>
@@ -7678,16 +7687,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>449</v>
+        <v>268</v>
       </c>
       <c r="B273" t="s">
-        <v>450</v>
+        <v>269</v>
       </c>
       <c r="C273">
-        <v>145</v>
+        <v>1033</v>
       </c>
       <c r="D273" t="s">
-        <v>451</v>
+        <v>270</v>
       </c>
       <c r="E273" t="s">
         <v>13</v>
@@ -7698,19 +7707,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>452</v>
+        <v>268</v>
       </c>
       <c r="B274" t="s">
-        <v>453</v>
+        <v>269</v>
       </c>
       <c r="C274">
-        <v>704</v>
+        <v>1055</v>
       </c>
       <c r="D274" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="E274" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -7718,16 +7727,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>452</v>
+        <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="C275">
-        <v>782</v>
+        <v>749</v>
       </c>
       <c r="D275" t="s">
-        <v>454</v>
+        <v>274</v>
       </c>
       <c r="E275" t="s">
         <v>13</v>
@@ -7738,19 +7747,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>455</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>456</v>
+        <v>276</v>
       </c>
       <c r="C276">
-        <v>1646</v>
+        <v>116</v>
       </c>
       <c r="D276" t="s">
-        <v>435</v>
+        <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -7758,16 +7767,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>457</v>
+        <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="C277">
-        <v>559</v>
+        <v>71</v>
       </c>
       <c r="D277" t="s">
-        <v>459</v>
+        <v>282</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
@@ -7778,16 +7787,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>457</v>
+        <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>458</v>
+        <v>287</v>
       </c>
       <c r="C278">
-        <v>980</v>
+        <v>2104</v>
       </c>
       <c r="D278" t="s">
-        <v>460</v>
+        <v>288</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
@@ -7798,16 +7807,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>457</v>
+        <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>458</v>
+        <v>290</v>
       </c>
       <c r="C279">
-        <v>1317</v>
+        <v>623</v>
       </c>
       <c r="D279" t="s">
-        <v>461</v>
+        <v>291</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
@@ -7818,16 +7827,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>457</v>
+        <v>295</v>
       </c>
       <c r="B280" t="s">
-        <v>458</v>
+        <v>296</v>
       </c>
       <c r="C280">
-        <v>1365</v>
+        <v>1764</v>
       </c>
       <c r="D280" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="E280" t="s">
         <v>13</v>
@@ -7838,19 +7847,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>462</v>
+        <v>295</v>
       </c>
       <c r="B281" t="s">
-        <v>463</v>
+        <v>296</v>
       </c>
       <c r="C281">
-        <v>231</v>
+        <v>1545</v>
       </c>
       <c r="D281" t="s">
-        <v>464</v>
+        <v>298</v>
       </c>
       <c r="E281" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -7858,19 +7867,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>465</v>
+        <v>295</v>
       </c>
       <c r="B282" t="s">
-        <v>466</v>
+        <v>296</v>
       </c>
       <c r="C282">
-        <v>591</v>
+        <v>1556</v>
       </c>
       <c r="D282" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="E282" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -7878,19 +7887,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="B283" t="s">
-        <v>468</v>
+        <v>301</v>
       </c>
       <c r="C283">
-        <v>720</v>
+        <v>1830</v>
       </c>
       <c r="D283" t="s">
-        <v>469</v>
+        <v>302</v>
       </c>
       <c r="E283" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -7898,16 +7907,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="B284" t="s">
-        <v>471</v>
+        <v>301</v>
       </c>
       <c r="C284">
-        <v>426</v>
+        <v>1849</v>
       </c>
       <c r="D284" t="s">
-        <v>472</v>
+        <v>303</v>
       </c>
       <c r="E284" t="s">
         <v>13</v>
@@ -7918,19 +7927,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="B285" t="s">
-        <v>474</v>
+        <v>301</v>
       </c>
       <c r="C285">
-        <v>118</v>
+        <v>3900</v>
       </c>
       <c r="D285" t="s">
-        <v>475</v>
+        <v>304</v>
       </c>
       <c r="E285" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -7938,19 +7947,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="B286" t="s">
-        <v>477</v>
+        <v>306</v>
       </c>
       <c r="C286">
-        <v>87</v>
+        <v>1673</v>
       </c>
       <c r="D286" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="E286" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -7958,19 +7967,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>476</v>
+        <v>311</v>
       </c>
       <c r="B287" t="s">
-        <v>477</v>
+        <v>309</v>
       </c>
       <c r="C287">
-        <v>175</v>
+        <v>2734</v>
       </c>
       <c r="D287" t="s">
-        <v>478</v>
+        <v>312</v>
       </c>
       <c r="E287" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -7978,19 +7987,19 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>476</v>
+        <v>313</v>
       </c>
       <c r="B288" t="s">
-        <v>479</v>
+        <v>314</v>
       </c>
       <c r="C288">
-        <v>78</v>
+        <v>1624</v>
       </c>
       <c r="D288" t="s">
-        <v>480</v>
+        <v>315</v>
       </c>
       <c r="E288" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -7998,19 +8007,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>476</v>
+        <v>313</v>
       </c>
       <c r="B289" t="s">
-        <v>481</v>
+        <v>314</v>
       </c>
       <c r="C289">
-        <v>148</v>
+        <v>2171</v>
       </c>
       <c r="D289" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="E289" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -8018,19 +8027,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>476</v>
+        <v>322</v>
       </c>
       <c r="B290" t="s">
-        <v>481</v>
+        <v>323</v>
       </c>
       <c r="C290">
-        <v>174</v>
+        <v>1565</v>
       </c>
       <c r="D290" t="s">
-        <v>482</v>
+        <v>324</v>
       </c>
       <c r="E290" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -8038,19 +8047,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>476</v>
+        <v>322</v>
       </c>
       <c r="B291" t="s">
-        <v>483</v>
+        <v>323</v>
       </c>
       <c r="C291">
-        <v>425</v>
+        <v>1651</v>
       </c>
       <c r="D291" t="s">
-        <v>484</v>
+        <v>325</v>
       </c>
       <c r="E291" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -8058,19 +8067,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>476</v>
+        <v>322</v>
       </c>
       <c r="B292" t="s">
-        <v>485</v>
+        <v>323</v>
       </c>
       <c r="C292">
-        <v>174</v>
+        <v>1680</v>
       </c>
       <c r="D292" t="s">
-        <v>486</v>
+        <v>326</v>
       </c>
       <c r="E292" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -8078,19 +8087,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>476</v>
+        <v>322</v>
       </c>
       <c r="B293" t="s">
-        <v>487</v>
+        <v>323</v>
       </c>
       <c r="C293">
-        <v>375</v>
+        <v>1724</v>
       </c>
       <c r="D293" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E293" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -8098,19 +8107,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>476</v>
+        <v>322</v>
       </c>
       <c r="B294" t="s">
-        <v>488</v>
+        <v>323</v>
       </c>
       <c r="C294">
-        <v>610</v>
+        <v>1726</v>
       </c>
       <c r="D294" t="s">
-        <v>55</v>
+        <v>328</v>
       </c>
       <c r="E294" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -8118,19 +8127,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>476</v>
+        <v>329</v>
       </c>
       <c r="B295" t="s">
-        <v>488</v>
+        <v>323</v>
       </c>
       <c r="C295">
-        <v>917</v>
+        <v>1154</v>
       </c>
       <c r="D295" t="s">
-        <v>26</v>
+        <v>330</v>
       </c>
       <c r="E295" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -8138,16 +8147,16 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="B296" t="s">
-        <v>489</v>
+        <v>336</v>
       </c>
       <c r="C296">
-        <v>104</v>
+        <v>3754</v>
       </c>
       <c r="D296" t="s">
-        <v>490</v>
+        <v>337</v>
       </c>
       <c r="E296" t="s">
         <v>13</v>
@@ -8158,19 +8167,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>491</v>
+        <v>335</v>
       </c>
       <c r="B297" t="s">
-        <v>492</v>
+        <v>338</v>
       </c>
       <c r="C297">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="D297" t="s">
-        <v>493</v>
+        <v>340</v>
       </c>
       <c r="E297" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -8178,16 +8187,16 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>491</v>
+        <v>335</v>
       </c>
       <c r="B298" t="s">
-        <v>492</v>
+        <v>338</v>
       </c>
       <c r="C298">
-        <v>252</v>
+        <v>418</v>
       </c>
       <c r="D298" t="s">
-        <v>494</v>
+        <v>341</v>
       </c>
       <c r="E298" t="s">
         <v>13</v>
@@ -8198,19 +8207,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
       <c r="B299" t="s">
-        <v>495</v>
+        <v>338</v>
       </c>
       <c r="C299">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="D299" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E299" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -8218,19 +8227,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>476</v>
+        <v>342</v>
       </c>
       <c r="B300" t="s">
-        <v>495</v>
+        <v>338</v>
       </c>
       <c r="C300">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="D300" t="s">
-        <v>496</v>
+        <v>344</v>
       </c>
       <c r="E300" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -8238,19 +8247,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>476</v>
+        <v>345</v>
       </c>
       <c r="B301" t="s">
-        <v>497</v>
+        <v>346</v>
       </c>
       <c r="C301">
-        <v>437</v>
+        <v>752</v>
       </c>
       <c r="D301" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="E301" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -8258,19 +8267,19 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>476</v>
+        <v>349</v>
       </c>
       <c r="B302" t="s">
-        <v>497</v>
+        <v>350</v>
       </c>
       <c r="C302">
-        <v>448</v>
+        <v>646</v>
       </c>
       <c r="D302" t="s">
-        <v>496</v>
+        <v>351</v>
       </c>
       <c r="E302" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -8278,16 +8287,16 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="B303" t="s">
-        <v>499</v>
+        <v>352</v>
       </c>
       <c r="C303">
-        <v>303</v>
+        <v>1288</v>
       </c>
       <c r="D303" t="s">
-        <v>500</v>
+        <v>353</v>
       </c>
       <c r="E303" t="s">
         <v>13</v>
@@ -8298,19 +8307,19 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>476</v>
+        <v>349</v>
       </c>
       <c r="B304" t="s">
-        <v>501</v>
+        <v>352</v>
       </c>
       <c r="C304">
-        <v>598</v>
+        <v>1321</v>
       </c>
       <c r="D304" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="E304" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -8318,19 +8327,19 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>503</v>
+        <v>358</v>
       </c>
       <c r="B305" t="s">
-        <v>501</v>
+        <v>359</v>
       </c>
       <c r="C305">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="D305" t="s">
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="E305" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -8338,16 +8347,16 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>503</v>
+        <v>370</v>
       </c>
       <c r="B306" t="s">
-        <v>501</v>
+        <v>371</v>
       </c>
       <c r="C306">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D306" t="s">
-        <v>505</v>
+        <v>372</v>
       </c>
       <c r="E306" t="s">
         <v>13</v>
@@ -8358,19 +8367,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>503</v>
+        <v>370</v>
       </c>
       <c r="B307" t="s">
-        <v>501</v>
+        <v>371</v>
       </c>
       <c r="C307">
-        <v>394</v>
+        <v>112</v>
       </c>
       <c r="D307" t="s">
-        <v>504</v>
+        <v>373</v>
       </c>
       <c r="E307" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -8378,16 +8387,16 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>476</v>
+        <v>374</v>
       </c>
       <c r="B308" t="s">
-        <v>506</v>
+        <v>377</v>
       </c>
       <c r="C308">
-        <v>579</v>
+        <v>1137</v>
       </c>
       <c r="D308" t="s">
-        <v>507</v>
+        <v>378</v>
       </c>
       <c r="E308" t="s">
         <v>13</v>
@@ -8398,19 +8407,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="B309" t="s">
-        <v>508</v>
+        <v>383</v>
       </c>
       <c r="C309">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="D309" t="s">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="E309" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F309">
         <v>1</v>
@@ -8418,19 +8427,19 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="B310" t="s">
-        <v>509</v>
+        <v>386</v>
       </c>
       <c r="C310">
-        <v>157</v>
+        <v>590</v>
       </c>
       <c r="D310" t="s">
-        <v>510</v>
+        <v>387</v>
       </c>
       <c r="E310" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -8438,19 +8447,19 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>476</v>
+        <v>391</v>
       </c>
       <c r="B311" t="s">
-        <v>509</v>
+        <v>392</v>
       </c>
       <c r="C311">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="D311" t="s">
-        <v>511</v>
+        <v>393</v>
       </c>
       <c r="E311" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F311">
         <v>1</v>
@@ -8458,19 +8467,19 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>476</v>
+        <v>391</v>
       </c>
       <c r="B312" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="C312">
-        <v>4638</v>
+        <v>150</v>
       </c>
       <c r="D312" t="s">
-        <v>513</v>
+        <v>394</v>
       </c>
       <c r="E312" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -8478,16 +8487,16 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="B313" t="s">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="C313">
-        <v>3853</v>
+        <v>634</v>
       </c>
       <c r="D313" t="s">
-        <v>514</v>
+        <v>410</v>
       </c>
       <c r="E313" t="s">
         <v>13</v>
@@ -8498,16 +8507,16 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="B314" t="s">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="C314">
-        <v>3895</v>
+        <v>2670</v>
       </c>
       <c r="D314" t="s">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="E314" t="s">
         <v>13</v>
@@ -8518,19 +8527,19 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="B315" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
       <c r="C315">
-        <v>1640</v>
+        <v>2689</v>
       </c>
       <c r="D315" t="s">
-        <v>517</v>
+        <v>415</v>
       </c>
       <c r="E315" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -8538,19 +8547,19 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>518</v>
+        <v>411</v>
       </c>
       <c r="B316" t="s">
-        <v>519</v>
+        <v>413</v>
       </c>
       <c r="C316">
-        <v>181</v>
+        <v>2689</v>
       </c>
       <c r="D316" t="s">
-        <v>168</v>
+        <v>415</v>
       </c>
       <c r="E316" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -8558,19 +8567,19 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>520</v>
+        <v>411</v>
       </c>
       <c r="B317" t="s">
-        <v>521</v>
+        <v>413</v>
       </c>
       <c r="C317">
-        <v>814</v>
+        <v>2861</v>
       </c>
       <c r="D317" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="E317" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -8578,19 +8587,19 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>520</v>
+        <v>418</v>
       </c>
       <c r="B318" t="s">
-        <v>521</v>
+        <v>419</v>
       </c>
       <c r="C318">
-        <v>1199</v>
+        <v>236</v>
       </c>
       <c r="D318" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="E318" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -8598,16 +8607,16 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>520</v>
+        <v>418</v>
       </c>
       <c r="B319" t="s">
-        <v>521</v>
+        <v>419</v>
       </c>
       <c r="C319">
-        <v>1193</v>
+        <v>271</v>
       </c>
       <c r="D319" t="s">
-        <v>523</v>
+        <v>421</v>
       </c>
       <c r="E319" t="s">
         <v>13</v>
@@ -8618,19 +8627,19 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>524</v>
+        <v>418</v>
       </c>
       <c r="B320" t="s">
-        <v>525</v>
+        <v>422</v>
       </c>
       <c r="C320">
-        <v>120</v>
+        <v>2197</v>
       </c>
       <c r="D320" t="s">
-        <v>53</v>
+        <v>424</v>
       </c>
       <c r="E320" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -8638,16 +8647,16 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>526</v>
+        <v>418</v>
       </c>
       <c r="B321" t="s">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="C321">
-        <v>839</v>
+        <v>3038</v>
       </c>
       <c r="D321" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
       <c r="E321" t="s">
         <v>13</v>
@@ -8658,16 +8667,16 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>529</v>
+        <v>418</v>
       </c>
       <c r="B322" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="C322">
-        <v>128</v>
+        <v>4429</v>
       </c>
       <c r="D322" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
       <c r="E322" t="s">
         <v>13</v>
@@ -8678,16 +8687,16 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>529</v>
+        <v>418</v>
       </c>
       <c r="B323" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="C323">
-        <v>399</v>
+        <v>4464</v>
       </c>
       <c r="D323" t="s">
-        <v>532</v>
+        <v>421</v>
       </c>
       <c r="E323" t="s">
         <v>13</v>
@@ -8698,16 +8707,16 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>529</v>
+        <v>418</v>
       </c>
       <c r="B324" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="C324">
-        <v>554</v>
+        <v>4804</v>
       </c>
       <c r="D324" t="s">
-        <v>532</v>
+        <v>420</v>
       </c>
       <c r="E324" t="s">
         <v>13</v>
@@ -8718,19 +8727,19 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="B325" t="s">
-        <v>534</v>
+        <v>425</v>
       </c>
       <c r="C325">
-        <v>564</v>
+        <v>5038</v>
       </c>
       <c r="D325" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
       <c r="E325" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -8738,16 +8747,16 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>533</v>
+        <v>427</v>
       </c>
       <c r="B326" t="s">
-        <v>534</v>
+        <v>428</v>
       </c>
       <c r="C326">
-        <v>558</v>
+        <v>3271</v>
       </c>
       <c r="D326" t="s">
-        <v>535</v>
+        <v>429</v>
       </c>
       <c r="E326" t="s">
         <v>13</v>
@@ -8758,19 +8767,19 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>536</v>
+        <v>430</v>
       </c>
       <c r="B327" t="s">
-        <v>537</v>
+        <v>428</v>
       </c>
       <c r="C327">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="D327" t="s">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="E327" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F327">
         <v>1</v>
@@ -8778,19 +8787,19 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>538</v>
+        <v>436</v>
       </c>
       <c r="B328" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
       <c r="C328">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="D328" t="s">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="E328" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -8798,19 +8807,19 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>540</v>
+        <v>439</v>
       </c>
       <c r="B329" t="s">
-        <v>541</v>
+        <v>440</v>
       </c>
       <c r="C329">
-        <v>1154</v>
+        <v>277</v>
       </c>
       <c r="D329" t="s">
-        <v>542</v>
+        <v>441</v>
       </c>
       <c r="E329" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -8818,19 +8827,19 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>543</v>
+        <v>442</v>
       </c>
       <c r="B330" t="s">
-        <v>544</v>
+        <v>443</v>
       </c>
       <c r="C330">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="D330" t="s">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="E330" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -8838,19 +8847,19 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>543</v>
+        <v>442</v>
       </c>
       <c r="B331" t="s">
-        <v>544</v>
+        <v>443</v>
       </c>
       <c r="C331">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="D331" t="s">
-        <v>8</v>
+        <v>445</v>
       </c>
       <c r="E331" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -8858,19 +8867,19 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>543</v>
+        <v>442</v>
       </c>
       <c r="B332" t="s">
-        <v>544</v>
+        <v>443</v>
       </c>
       <c r="C332">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="D332" t="s">
-        <v>56</v>
+        <v>446</v>
       </c>
       <c r="E332" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -8878,19 +8887,19 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>543</v>
+        <v>442</v>
       </c>
       <c r="B333" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="C333">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="D333" t="s">
-        <v>163</v>
+        <v>447</v>
       </c>
       <c r="E333" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -8898,16 +8907,16 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>543</v>
+        <v>442</v>
       </c>
       <c r="B334" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="C334">
-        <v>431</v>
+        <v>512</v>
       </c>
       <c r="D334" t="s">
-        <v>523</v>
+        <v>448</v>
       </c>
       <c r="E334" t="s">
         <v>13</v>
@@ -8918,19 +8927,19 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
       <c r="B335" t="s">
-        <v>547</v>
+        <v>450</v>
       </c>
       <c r="C335">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D335" t="s">
-        <v>548</v>
+        <v>451</v>
       </c>
       <c r="E335" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -8938,19 +8947,19 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>546</v>
+        <v>452</v>
       </c>
       <c r="B336" t="s">
-        <v>547</v>
+        <v>453</v>
       </c>
       <c r="C336">
-        <v>257</v>
+        <v>782</v>
       </c>
       <c r="D336" t="s">
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="E336" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -8958,19 +8967,19 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="B337" t="s">
-        <v>549</v>
+        <v>458</v>
       </c>
       <c r="C337">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="D337" t="s">
-        <v>56</v>
+        <v>459</v>
       </c>
       <c r="E337" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -8978,19 +8987,19 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>550</v>
+        <v>457</v>
       </c>
       <c r="B338" t="s">
-        <v>551</v>
+        <v>458</v>
       </c>
       <c r="C338">
-        <v>288</v>
+        <v>980</v>
       </c>
       <c r="D338" t="s">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="E338" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -8998,16 +9007,16 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
       <c r="B339" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="C339">
-        <v>1659</v>
+        <v>1317</v>
       </c>
       <c r="D339" t="s">
-        <v>554</v>
+        <v>461</v>
       </c>
       <c r="E339" t="s">
         <v>13</v>
@@ -9018,16 +9027,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>555</v>
+        <v>457</v>
       </c>
       <c r="B340" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="C340">
-        <v>2323</v>
+        <v>1365</v>
       </c>
       <c r="D340" t="s">
-        <v>556</v>
+        <v>348</v>
       </c>
       <c r="E340" t="s">
         <v>13</v>
@@ -9038,19 +9047,19 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="B341" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="C341">
-        <v>299</v>
+        <v>426</v>
       </c>
       <c r="D341" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="E341" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -9058,19 +9067,19 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>557</v>
+        <v>476</v>
       </c>
       <c r="B342" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="C342">
-        <v>340</v>
+        <v>104</v>
       </c>
       <c r="D342" t="s">
-        <v>339</v>
+        <v>490</v>
       </c>
       <c r="E342" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -9078,16 +9087,16 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>557</v>
+        <v>491</v>
       </c>
       <c r="B343" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="C343">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="D343" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="E343" t="s">
         <v>13</v>
@@ -9098,16 +9107,16 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="B344" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
       <c r="C344">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="D344" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="E344" t="s">
         <v>13</v>
@@ -9118,16 +9127,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="B345" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="C345">
-        <v>831</v>
+        <v>130</v>
       </c>
       <c r="D345" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="E345" t="s">
         <v>13</v>
@@ -9138,16 +9147,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="B346" t="s">
-        <v>564</v>
+        <v>506</v>
       </c>
       <c r="C346">
-        <v>858</v>
+        <v>579</v>
       </c>
       <c r="D346" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="E346" t="s">
         <v>13</v>
@@ -9158,16 +9167,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="B347" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="C347">
-        <v>1813</v>
+        <v>3853</v>
       </c>
       <c r="D347" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="E347" t="s">
         <v>13</v>
@@ -9178,19 +9187,19 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="B348" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="C348">
-        <v>116</v>
+        <v>3895</v>
       </c>
       <c r="D348" t="s">
-        <v>53</v>
+        <v>515</v>
       </c>
       <c r="E348" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -9198,19 +9207,19 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="B349" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="C349">
-        <v>463</v>
+        <v>1193</v>
       </c>
       <c r="D349" t="s">
-        <v>56</v>
+        <v>523</v>
       </c>
       <c r="E349" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -9218,16 +9227,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="B350" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="C350">
-        <v>437</v>
+        <v>839</v>
       </c>
       <c r="D350" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="E350" t="s">
         <v>13</v>
@@ -9238,16 +9247,16 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="B351" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="C351">
-        <v>448</v>
+        <v>128</v>
       </c>
       <c r="D351" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="E351" t="s">
         <v>13</v>
@@ -9258,19 +9267,19 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="B352" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="C352">
-        <v>897</v>
+        <v>399</v>
       </c>
       <c r="D352" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="E352" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F352">
         <v>1</v>
@@ -9278,19 +9287,19 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="B353" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="C353">
-        <v>1036</v>
+        <v>554</v>
       </c>
       <c r="D353" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="E353" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -9298,19 +9307,19 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="B354" t="s">
-        <v>578</v>
+        <v>534</v>
       </c>
       <c r="C354">
-        <v>206</v>
+        <v>558</v>
       </c>
       <c r="D354" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="E354" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -9318,16 +9327,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="B355" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="C355">
-        <v>200</v>
+        <v>431</v>
       </c>
       <c r="D355" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="E355" t="s">
         <v>13</v>
@@ -9338,19 +9347,19 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B356" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="C356">
-        <v>126</v>
+        <v>1659</v>
       </c>
       <c r="D356" t="s">
-        <v>310</v>
+        <v>554</v>
       </c>
       <c r="E356" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -9358,19 +9367,19 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B357" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="C357">
-        <v>329</v>
+        <v>2323</v>
       </c>
       <c r="D357" t="s">
-        <v>310</v>
+        <v>556</v>
       </c>
       <c r="E357" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -9378,19 +9387,19 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B358" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="C358">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="D358" t="s">
-        <v>310</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -9401,16 +9410,16 @@
         <v>560</v>
       </c>
       <c r="B359" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="C359">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="D359" t="s">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="E359" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -9418,19 +9427,19 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B360" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C360">
-        <v>561</v>
+        <v>831</v>
       </c>
       <c r="D360" t="s">
-        <v>310</v>
+        <v>565</v>
       </c>
       <c r="E360" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -9438,16 +9447,16 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B361" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C361">
-        <v>470</v>
+        <v>858</v>
       </c>
       <c r="D361" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="E361" t="s">
         <v>13</v>
@@ -9458,16 +9467,16 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B362" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C362">
-        <v>492</v>
+        <v>1813</v>
       </c>
       <c r="D362" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E362" t="s">
         <v>13</v>
@@ -9478,16 +9487,16 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B363" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C363">
-        <v>2096</v>
+        <v>437</v>
       </c>
       <c r="D363" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="E363" t="s">
         <v>13</v>
@@ -9498,16 +9507,16 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B364" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C364">
-        <v>2973</v>
+        <v>448</v>
       </c>
       <c r="D364" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="E364" t="s">
         <v>13</v>
@@ -9518,19 +9527,19 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B365" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C365">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>580</v>
       </c>
       <c r="E365" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -9538,19 +9547,19 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="B366" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C366">
-        <v>177</v>
+        <v>470</v>
       </c>
       <c r="D366" t="s">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="E366" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -9558,19 +9567,19 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="B367" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C367">
-        <v>277</v>
+        <v>492</v>
       </c>
       <c r="D367" t="s">
-        <v>310</v>
+        <v>584</v>
       </c>
       <c r="E367" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -9578,19 +9587,19 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="B368" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C368">
-        <v>368</v>
+        <v>2096</v>
       </c>
       <c r="D368" t="s">
-        <v>310</v>
+        <v>586</v>
       </c>
       <c r="E368" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F368">
         <v>1</v>
@@ -9598,16 +9607,16 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="B369" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C369">
-        <v>1609</v>
+        <v>2973</v>
       </c>
       <c r="D369" t="s">
-        <v>245</v>
+        <v>587</v>
       </c>
       <c r="E369" t="s">
         <v>13</v>
@@ -9624,10 +9633,10 @@
         <v>592</v>
       </c>
       <c r="C370">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D370" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E370" t="s">
         <v>13</v>
@@ -9638,16 +9647,16 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B371" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C371">
-        <v>247</v>
+        <v>1611</v>
       </c>
       <c r="D371" t="s">
-        <v>595</v>
+        <v>246</v>
       </c>
       <c r="E371" t="s">
         <v>13</v>
@@ -9664,10 +9673,10 @@
         <v>594</v>
       </c>
       <c r="C372">
-        <v>482</v>
+        <v>247</v>
       </c>
       <c r="D372" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E372" t="s">
         <v>13</v>
@@ -9678,16 +9687,16 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B373" t="s">
         <v>594</v>
       </c>
       <c r="C373">
-        <v>635</v>
+        <v>482</v>
       </c>
       <c r="D373" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E373" t="s">
         <v>13</v>
@@ -9698,19 +9707,19 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B374" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C374">
-        <v>94</v>
+        <v>635</v>
       </c>
       <c r="D374" t="s">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="E374" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F374">
         <v>1</v>
@@ -9904,13 +9913,13 @@
         <v>614</v>
       </c>
       <c r="C384">
-        <v>1512</v>
+        <v>1311</v>
       </c>
       <c r="D384" t="s">
-        <v>56</v>
+        <v>615</v>
       </c>
       <c r="E384" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F384">
         <v>1</v>
@@ -9924,10 +9933,10 @@
         <v>614</v>
       </c>
       <c r="C385">
-        <v>1311</v>
+        <v>1505</v>
       </c>
       <c r="D385" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E385" t="s">
         <v>13</v>
@@ -9944,10 +9953,10 @@
         <v>614</v>
       </c>
       <c r="C386">
-        <v>1505</v>
+        <v>2725</v>
       </c>
       <c r="D386" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E386" t="s">
         <v>13</v>
@@ -9964,10 +9973,10 @@
         <v>614</v>
       </c>
       <c r="C387">
-        <v>2725</v>
+        <v>3006</v>
       </c>
       <c r="D387" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E387" t="s">
         <v>13</v>
@@ -9978,16 +9987,16 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B388" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C388">
-        <v>3006</v>
+        <v>1493</v>
       </c>
       <c r="D388" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E388" t="s">
         <v>13</v>
@@ -10004,10 +10013,10 @@
         <v>620</v>
       </c>
       <c r="C389">
-        <v>1493</v>
+        <v>1530</v>
       </c>
       <c r="D389" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E389" t="s">
         <v>13</v>
@@ -10018,19 +10027,19 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>619</v>
+        <v>331</v>
       </c>
       <c r="B390" t="s">
-        <v>620</v>
+        <v>332</v>
       </c>
       <c r="C390">
-        <v>1530</v>
+        <v>156</v>
       </c>
       <c r="D390" t="s">
-        <v>622</v>
+        <v>333</v>
       </c>
       <c r="E390" t="s">
-        <v>13</v>
+        <v>334</v>
       </c>
       <c r="F390">
         <v>1</v>
